--- a/fungi/soil_microbial_biomass/soil_microbial_biomass_data.xlsx
+++ b/fungi/soil_microbial_biomass/soil_microbial_biomass_data.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Remarks </t>
   </si>
@@ -206,9 +205,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,96 +487,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>